--- a/biology/Médecine/Charles_Drelincourt_(médecin)/Charles_Drelincourt_(médecin).xlsx
+++ b/biology/Médecine/Charles_Drelincourt_(médecin)/Charles_Drelincourt_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Charles_Drelincourt_(m%C3%A9decin)</t>
+          <t>Charles_Drelincourt_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Drelincourt, né le 1er février 1633 à Paris et mort le 31 mai 1697 à Leyde, est un médecin, anatomiste et professeur de médecine français. Il est recteur de l'université de Leyde.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Charles_Drelincourt_(m%C3%A9decin)</t>
+          <t>Charles_Drelincourt_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Drelincourt est le fils de Charles Drelincourt, pasteur réformé à Paris, et de Marguerite Bolduc. L'un de ses frères Peter Drelincourt, est prêtre anglican, doyen de la cathédrale d'Armagh, dans l'Église d'Irlande[1]. Parmi ses autres frères, Laurent Drelincourt, est pasteur de l'Église réformée et auteur de sonnets, Antoine Drelincourt est médecin dans le canton de Berne, et Henri Drelincourt est pasteur à Gien et Fontainebleau[2].
-Charles Drelincourt fait ses études à Paris avec Jean Riolan, puis à l'académie de Saumur et à l'université de Montpellier où il obtient son doctorat en médecine en 1654. Il exerce à Paris et devient, en 1655, le médecin personnel de Turenne[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Drelincourt est le fils de Charles Drelincourt, pasteur réformé à Paris, et de Marguerite Bolduc. L'un de ses frères Peter Drelincourt, est prêtre anglican, doyen de la cathédrale d'Armagh, dans l'Église d'Irlande. Parmi ses autres frères, Laurent Drelincourt, est pasteur de l'Église réformée et auteur de sonnets, Antoine Drelincourt est médecin dans le canton de Berne, et Henri Drelincourt est pasteur à Gien et Fontainebleau.
+Charles Drelincourt fait ses études à Paris avec Jean Riolan, puis à l'académie de Saumur et à l'université de Montpellier où il obtient son doctorat en médecine en 1654. Il exerce à Paris et devient, en 1655, le médecin personnel de Turenne.
 De 1656 à 1658, il est médecin militaire en Flandre de 1656 à 1658, puis il est nommé premier médecin du roi Louis XIV pour les armées, en 1659.
-Il épouse Susanna Jacobs. Le couple s'installa à Leyde en 1668[4]. Il est titulaire de la chaire de médecine de l'université de Leyde, où il succède à Jan Antonides van der Linden. Il est plusieurs fois recteur de cette université.
-Sa connaissance des langues anciennes était importante et il était un érudit en littérature classique et médicale, obtenant de ce fait une certaine reconnaissance, en particulier de Pierre Bayle[5].
-Herman Boerhaave, son successeur à la chaire de médecine de Leyde, assiste à plusieurs de ses cours et publie en hommage des textes de lui[6].
+Il épouse Susanna Jacobs. Le couple s'installa à Leyde en 1668. Il est titulaire de la chaire de médecine de l'université de Leyde, où il succède à Jan Antonides van der Linden. Il est plusieurs fois recteur de cette université.
+Sa connaissance des langues anciennes était importante et il était un érudit en littérature classique et médicale, obtenant de ce fait une certaine reconnaissance, en particulier de Pierre Bayle.
+Herman Boerhaave, son successeur à la chaire de médecine de Leyde, assiste à plusieurs de ses cours et publie en hommage des textes de lui.
 Il meurt à Leyde en 1697, à l'âge de 64 ans.
 </t>
         </is>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Charles_Drelincourt_(m%C3%A9decin)</t>
+          <t>Charles_Drelincourt_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Clarissimum Monspeliensis Apollinis Stadium currente C. Drelincurtio, Caroli filio, Parisio, &amp; Liberalium Artrium Magistro, Doctoratum ambiente anno salutis M. DC. LIV, Quaestio Therapeutica pro prima Apollinari laurea consequenda, proposita ab illustrissimo viro D. D. Lazaro Riverio Regis Consilaiario &amp; Medicorum Academia Professore dignissimo, sub hac verborum serie: Anomibus putridis Febribus section. &amp; Purgatio Montpellier 1654, Leyde 1680
 Questiones quatuor Cardinales, pro suprema Apollinari daphne consequenda, proposita ab illustrissimis viris D. D. Richero de Balleval … &amp; D. D. Simeone Curtaudo … Quarum veritatem, seriis exactis, triduum integrum mane &amp; vesperi tueri conabitur Carolus Drelincurtius, … Medicinae Licentiatus, in inclyto Monspeliensis Apollinis sano Montpellier
